--- a/david_finance.xlsx
+++ b/david_finance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\python_codes\david_finance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\python_codes\finance_manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AC24F1-A99B-4064-82E1-DB1F24B9B62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B5DBCD-F0EE-4234-822D-42CB6D8BE55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{345403B4-E0C2-451B-BA1E-8F2416887F82}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{345403B4-E0C2-451B-BA1E-8F2416887F82}"/>
   </bookViews>
   <sheets>
     <sheet name="nueva_deuda_a_plazos" sheetId="2" r:id="rId1"/>
@@ -23,19 +23,21 @@
     <sheet name="ingresos_categories" sheetId="17" r:id="rId8"/>
     <sheet name="issued_by" sheetId="12" r:id="rId9"/>
     <sheet name="tarjetas_de_credito" sheetId="13" r:id="rId10"/>
-    <sheet name="creditos" sheetId="18" r:id="rId11"/>
-    <sheet name="debito_y_cuentas" sheetId="14" r:id="rId12"/>
-    <sheet name="frecuencias_de_pago" sheetId="15" r:id="rId13"/>
-    <sheet name="plazos_recurrente_normal" sheetId="16" r:id="rId14"/>
+    <sheet name="payment_methods" sheetId="19" r:id="rId11"/>
+    <sheet name="creditos" sheetId="18" r:id="rId12"/>
+    <sheet name="debito_y_cuentas" sheetId="14" r:id="rId13"/>
+    <sheet name="frecuencias_de_pago" sheetId="15" r:id="rId14"/>
+    <sheet name="plazos_recurrente_normal" sheetId="16" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="creditos">tbl_creditos[[#All],[creditos]]</definedName>
+    <definedName name="credit_cards">tarjetas_de_credito!$A$2:$A$6</definedName>
+    <definedName name="creditos">creditos!$A$2:$A$7</definedName>
     <definedName name="debito_y_cuentas">debito_y_cuentas!$A$2:$A$6</definedName>
-    <definedName name="frecuencias_de_pago">frecuencias_de_pago!$A$2:$A$9</definedName>
+    <definedName name="frecuencias_de_pago">frecuencias_de_pago!$A$2:$A$10</definedName>
     <definedName name="gastos_categories">gastos_categories!$A$2:$A$32</definedName>
     <definedName name="ingresos_categories">ingresos_categories!$A$2:$A$4</definedName>
     <definedName name="issued_by">issued_by!$A$2:$A$8</definedName>
-    <definedName name="payment_method">tarjetas_de_credito!$A$2:$A$6</definedName>
+    <definedName name="payment_methods">payment_methods!$A$2:$A$11</definedName>
     <definedName name="plazos_recurrente_normal">plazos_recurrente_normal!$A$2:$A$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="110">
   <si>
     <t>fecha_de_transaccion</t>
   </si>
@@ -148,9 +150,6 @@
     <t>fecha_de_cargo</t>
   </si>
   <si>
-    <t>limite_de_pago</t>
-  </si>
-  <si>
     <t>deuda_a_plazos_recurrente_o_normal</t>
   </si>
   <si>
@@ -253,9 +252,6 @@
     <t>Vaquita</t>
   </si>
   <si>
-    <t>payment_method</t>
-  </si>
-  <si>
     <t>LikeU</t>
   </si>
   <si>
@@ -307,9 +303,6 @@
     <t>dia_de_corte</t>
   </si>
   <si>
-    <t>dia_de_pago</t>
-  </si>
-  <si>
     <t>debito_y_cuentas</t>
   </si>
   <si>
@@ -370,37 +363,34 @@
     <t>Intereses</t>
   </si>
   <si>
-    <t>Comentario de gym</t>
-  </si>
-  <si>
-    <t>Comentario de Impuestos</t>
-  </si>
-  <si>
-    <t>Descripcion de gim</t>
-  </si>
-  <si>
-    <t>Description impuestos</t>
-  </si>
-  <si>
-    <t>Credito nomina afirme</t>
-  </si>
-  <si>
-    <t>Comentario nomina</t>
-  </si>
-  <si>
-    <t>Recibo Gas</t>
-  </si>
-  <si>
-    <t>Laptop</t>
-  </si>
-  <si>
-    <t>Registro por deuda de wendy</t>
-  </si>
-  <si>
     <t>creditos</t>
   </si>
   <si>
     <t>plazo_para_pagar</t>
+  </si>
+  <si>
+    <t>trimestral</t>
+  </si>
+  <si>
+    <t>credit_cards</t>
+  </si>
+  <si>
+    <t>payment_methods</t>
+  </si>
+  <si>
+    <t>Reinscripcion</t>
+  </si>
+  <si>
+    <t>Colegiatura</t>
+  </si>
+  <si>
+    <t>Flores Mamá</t>
+  </si>
+  <si>
+    <t>Dia de madres</t>
+  </si>
+  <si>
+    <t>Celular Samsung A54</t>
   </si>
 </sst>
 </file>
@@ -436,15 +426,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="43">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -534,6 +525,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
@@ -585,31 +579,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F05683C-0EAF-45BA-8056-546567C31854}" name="estructura_transacciones" displayName="estructura_transacciones" ref="A1:K8" totalsRowShown="0">
-  <autoFilter ref="A1:K8" xr:uid="{6F05683C-0EAF-45BA-8056-546567C31854}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F05683C-0EAF-45BA-8056-546567C31854}" name="estructura_transacciones" displayName="estructura_transacciones" ref="A1:K2" totalsRowShown="0">
+  <autoFilter ref="A1:K2" xr:uid="{6F05683C-0EAF-45BA-8056-546567C31854}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{3751A530-512A-48D0-ACA1-E2237E85BD4B}" name="fecha_de_transaccion" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{7385DBD7-EB34-433E-A7DB-728EAF33D62E}" name="frecuencia_de_pago" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{626C2B8F-5C27-4C0B-B719-5B93327D2501}" name="fecha_de_inicio" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{3751A530-512A-48D0-ACA1-E2237E85BD4B}" name="fecha_de_transaccion" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{7385DBD7-EB34-433E-A7DB-728EAF33D62E}" name="frecuencia_de_pago" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{626C2B8F-5C27-4C0B-B719-5B93327D2501}" name="fecha_de_inicio" dataDxfId="40"/>
     <tableColumn id="4" xr3:uid="{6FA13EEF-3757-406D-AB04-AE84D502C26F}" name="numero_de_plazos"/>
     <tableColumn id="5" xr3:uid="{69EFA34A-90CC-44D8-94DA-C15E94B31796}" name="dias_de_margen"/>
-    <tableColumn id="6" xr3:uid="{6FA1131D-FE42-43C8-9D6A-591D0F28EC2F}" name="monto_total_deuda" dataDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{FD79B06C-466E-4B3B-92B7-9CC99AB235E6}" name="forma_de_pago" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{3B2495AD-A8F6-48EB-BEEF-5C6D9FDC70A4}" name="descripcion" dataDxfId="36"/>
-    <tableColumn id="9" xr3:uid="{6A11E9C5-3541-40DF-A991-FB22ABA03550}" name="categoria" dataDxfId="35"/>
-    <tableColumn id="10" xr3:uid="{E0E77362-FF5F-42CB-91DD-D5389F8891C5}" name="realizado_por" dataDxfId="34"/>
-    <tableColumn id="11" xr3:uid="{E46B6D76-C8A7-4B91-8651-7A3D1A573011}" name="comentarios" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{6FA1131D-FE42-43C8-9D6A-591D0F28EC2F}" name="monto_total_deuda" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{FD79B06C-466E-4B3B-92B7-9CC99AB235E6}" name="forma_de_pago" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{3B2495AD-A8F6-48EB-BEEF-5C6D9FDC70A4}" name="descripcion" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{6A11E9C5-3541-40DF-A991-FB22ABA03550}" name="categoria" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{E0E77362-FF5F-42CB-91DD-D5389F8891C5}" name="realizado_por" dataDxfId="35"/>
+    <tableColumn id="11" xr3:uid="{E46B6D76-C8A7-4B91-8651-7A3D1A573011}" name="comentarios" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{9CFA1823-AEE8-4F63-833F-B72781BDAA8D}" name="tbl_tarjetas_de_credito" displayName="tbl_tarjetas_de_credito" ref="A1:D6" totalsRowShown="0">
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{61208F26-2C92-45CC-B249-AC17EA349613}" name="payment_method"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{9CFA1823-AEE8-4F63-833F-B72781BDAA8D}" name="tbl_credit_cards" displayName="tbl_credit_cards" ref="A1:C6" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{61208F26-2C92-45CC-B249-AC17EA349613}" name="credit_cards"/>
     <tableColumn id="2" xr3:uid="{6C7D9BEB-9819-4AF2-9F21-D2E6EC717C7C}" name="dia_de_corte"/>
-    <tableColumn id="3" xr3:uid="{9D57C55B-33D7-4B71-8504-ADCCBA0F0B9A}" name="dia_de_pago"/>
     <tableColumn id="4" xr3:uid="{5DFABE5D-C83E-4137-BD37-F42B51A174E8}" name="plazo_para_pagar"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -617,6 +610,15 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FB2F1B61-6BB5-4631-AA80-6C4EAC37AA8F}" name="tbl_payment_methods" displayName="tbl_payment_methods" ref="A1:A11" totalsRowShown="0">
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{3259DA84-A256-4980-9405-0F87438BFD13}" name="payment_methods"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{504B537A-CF9A-4C93-901E-81100B737829}" name="tbl_creditos" displayName="tbl_creditos" ref="A1:A7" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{85F827C8-280F-40ED-8DE7-C1BB7D914AEC}" name="creditos"/>
@@ -625,7 +627,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{965C8E30-D6E9-4403-BA1D-12E9BDF19FCC}" name="tbl_debito_y_cuentas" displayName="tbl_debito_y_cuentas" ref="A1:A6" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{8CAFC42E-D052-4CFF-BB2B-49BA75141D1E}" name="debito_y_cuentas"/>
@@ -634,9 +636,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{6A767FC8-F4DE-40D7-AD0A-601AD036E4B9}" name="tbl_frecuencias_de_pago" displayName="tbl_frecuencias_de_pago" ref="A1:A9" totalsRowShown="0">
-  <autoFilter ref="A1:A9" xr:uid="{007A344A-CC5B-4E08-93AD-7E8015A5037B}"/>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{6A767FC8-F4DE-40D7-AD0A-601AD036E4B9}" name="tbl_frecuencias_de_pago" displayName="tbl_frecuencias_de_pago" ref="A1:A10" totalsRowShown="0">
+  <autoFilter ref="A1:A10" xr:uid="{007A344A-CC5B-4E08-93AD-7E8015A5037B}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{FA46264A-D1C9-4322-8D7D-69F74DDF7914}" name="frecuencias_de_pago"/>
   </tableColumns>
@@ -644,7 +646,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{E80950E7-1E5E-4DFB-AD5B-05525A9603B0}" name="tbl_plazos_recurrente_normal" displayName="tbl_plazos_recurrente_normal" ref="A1:A4" totalsRowShown="0">
   <autoFilter ref="A1:A4" xr:uid="{E80950E7-1E5E-4DFB-AD5B-05525A9603B0}"/>
   <tableColumns count="1">
@@ -655,15 +657,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F622556F-D87B-4F08-9DB0-55027FD6196C}" name="estructura_transacciones3" displayName="estructura_transacciones3" ref="A1:K3" totalsRowShown="0">
-  <autoFilter ref="A1:K3" xr:uid="{6F05683C-0EAF-45BA-8056-546567C31854}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F622556F-D87B-4F08-9DB0-55027FD6196C}" name="estructura_transacciones3" displayName="estructura_transacciones3" ref="A1:K4" totalsRowShown="0">
+  <autoFilter ref="A1:K4" xr:uid="{6F05683C-0EAF-45BA-8056-546567C31854}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{596EC6A4-11EF-4DEE-B34E-9EC3BA15F511}" name="fecha_de_transaccion" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{0BAC5350-6187-4007-A1E7-9BB5CEF1C730}" name="frecuencia_de_pago" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{D476E092-13AF-42EE-AEEF-4CD702AD1094}" name="fecha_de_inicio" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{596EC6A4-11EF-4DEE-B34E-9EC3BA15F511}" name="fecha_de_transaccion" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{0BAC5350-6187-4007-A1E7-9BB5CEF1C730}" name="frecuencia_de_pago" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{D476E092-13AF-42EE-AEEF-4CD702AD1094}" name="fecha_de_inicio" dataDxfId="31"/>
     <tableColumn id="4" xr3:uid="{6ABE0833-0B41-40A0-BBD8-C4A709289E9F}" name="cantidad_de_frecuencias"/>
     <tableColumn id="5" xr3:uid="{6575A171-3761-4E26-A921-5D5E48E4DE51}" name="dias_de_margen"/>
-    <tableColumn id="6" xr3:uid="{F9B5451D-FA90-48DF-80E4-7A84FC8C97DC}" name="monto_por_evento"/>
+    <tableColumn id="6" xr3:uid="{F9B5451D-FA90-48DF-80E4-7A84FC8C97DC}" name="monto_por_evento" dataDxfId="30"/>
     <tableColumn id="7" xr3:uid="{AC6E4DF5-AB72-4C52-A496-624BC2388908}" name="forma_de_pago" dataDxfId="29"/>
     <tableColumn id="8" xr3:uid="{678DB44A-A74D-4876-B5D1-F88C68C3EDAF}" name="descripcion" dataDxfId="28"/>
     <tableColumn id="9" xr3:uid="{681E92D6-501A-4714-B16D-3171F9FED5FD}" name="categoria" dataDxfId="27"/>
@@ -675,16 +677,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D79B7718-C5F9-44F4-99B0-95EC35A89BD8}" name="estructura_transacciones39" displayName="estructura_transacciones39" ref="A1:I3" totalsRowShown="0">
-  <autoFilter ref="A1:I3" xr:uid="{6F05683C-0EAF-45BA-8056-546567C31854}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D79B7718-C5F9-44F4-99B0-95EC35A89BD8}" name="estructura_transacciones39" displayName="estructura_transacciones39" ref="A1:H3" totalsRowShown="0">
+  <autoFilter ref="A1:H3" xr:uid="{6F05683C-0EAF-45BA-8056-546567C31854}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{D240ED92-CE4A-4A49-B340-81EF262976A6}" name="fecha_de_cargo" dataDxfId="24"/>
     <tableColumn id="8" xr3:uid="{92A8E1F3-5EAF-4920-A91A-67C16A5C9192}" name="descripcion" dataDxfId="23"/>
     <tableColumn id="9" xr3:uid="{D9377D95-3CBB-4EFF-9FC3-1AE27C942399}" name="categoria" dataDxfId="22"/>
     <tableColumn id="6" xr3:uid="{6364E12B-6F00-4608-92D1-5AC72DA21B6C}" name="monto"/>
     <tableColumn id="7" xr3:uid="{15AB5548-E45C-4853-B770-F26EDF365AA3}" name="forma_de_pago" dataDxfId="21"/>
     <tableColumn id="10" xr3:uid="{3537C902-E7DB-47CB-B546-6A67D806A969}" name="realizado_por" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{A66D34F0-156E-421A-8D72-1285A90E997D}" name="limite_de_pago"/>
     <tableColumn id="5" xr3:uid="{1741BE5E-1D74-4650-BCB7-8823DCCFD4A0}" name="deuda_a_plazos_recurrente_o_normal"/>
     <tableColumn id="11" xr3:uid="{6EB0FDC1-CD9D-4F49-A0F1-F601EADB2F80}" name="comentarios" dataDxfId="19"/>
   </tableColumns>
@@ -1094,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214FC33E-AB93-4FE3-A38C-763F676E51D1}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1152,249 +1153,48 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>45410</v>
+        <v>45228</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1">
-        <v>45410</v>
+        <v>45228</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>45412</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1">
-        <v>45412</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>120000</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>45416</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45417</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>146</v>
-      </c>
-      <c r="G4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>45416</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45426</v>
-      </c>
-      <c r="D5">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>5000</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>45416</v>
-      </c>
-      <c r="B6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45426</v>
-      </c>
-      <c r="D6">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>10000</v>
-      </c>
-      <c r="G6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>45416</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1">
-        <v>45426</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>13000</v>
-      </c>
-      <c r="G7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>45416</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45426</v>
-      </c>
-      <c r="D8">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>13000</v>
-      </c>
-      <c r="G8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8" xr:uid="{B21D9B68-801E-4EC4-81E1-F4276CBCE9B4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{7E34192A-9AB8-42FB-A10E-6192E75DBF01}">
       <formula1>frecuencias_de_pago</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G8" xr:uid="{0E6FF20C-CD02-4622-8CE1-1AB3F846A768}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{4192880D-0BF5-436A-8A34-203481F6B560}">
       <formula1>creditos</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I8" xr:uid="{C19FE2FE-DD95-4099-B3F1-CAB3A01AE307}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{07C91FC5-FDCE-4BF9-B4AE-2F3AE6AA22DE}">
       <formula1>gastos_categories</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J8" xr:uid="{9F71D4B4-97FF-4553-AE80-9F4138ED83CE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{54069142-CEB2-424C-A129-B663BF0D7FC0}">
       <formula1>issued_by</formula1>
     </dataValidation>
   </dataValidations>
@@ -1407,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C2B398-A257-40E8-BC27-68B108BFDE7D}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1418,35 +1218,29 @@
     <col min="1" max="1" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>12</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1454,51 +1248,39 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>19</v>
       </c>
       <c r="C4">
-        <v>19</v>
-      </c>
-      <c r="D4">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5">
         <v>15</v>
       </c>
       <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>26</v>
-      </c>
-      <c r="D6">
         <v>19</v>
       </c>
     </row>
@@ -1511,6 +1293,82 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85A8DC8-AF5B-4F72-9355-2F4A2A41DE09}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A1:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0811939C-0E2B-4C1B-A938-B33FF617EAE1}">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -1522,12 +1380,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
@@ -1537,22 +1395,22 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1563,12 +1421,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595A5F2B-9BAB-4628-8C41-BD18B359C3F0}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1578,32 +1436,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1614,12 +1472,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2AA961-0E7B-4DEB-B9DA-A369758C8FB5}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A9"/>
+      <selection activeCell="A10" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1629,22 +1487,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
@@ -1654,22 +1512,27 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1680,7 +1543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EC088D-A31B-40F5-B470-400E75CC1FF7}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -1693,22 +1556,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1721,11 +1584,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215E03AC-E0F3-4BB7-B8F8-865BC1096EBE}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1779,68 +1640,108 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>45410</v>
+        <v>45556</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1">
-        <v>45410</v>
+        <v>45556</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>100</v>
+      <c r="F2" s="2">
+        <v>800</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>45433</v>
+      </c>
       <c r="B3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45433</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1800</v>
+      </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
-      </c>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45433</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1800</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{51237FD8-298F-4C0B-B809-DC77A5FCEEAD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{E1A01DDE-ADE5-4AB2-A00A-E9B34637D814}">
       <formula1>frecuencias_de_pago</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{1A513A81-FF03-4AD3-AB6C-00DB494732EE}">
-      <formula1>payment_method</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{88F1C794-5AAE-4986-8B3C-4CF41D0B216B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{35840D09-514F-4340-87A4-EE6B2ECF3A24}">
       <formula1>issued_by</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3" xr:uid="{338B2AF6-838E-4EAB-BA1F-71E771CB8B0D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{262668A4-F67E-4A82-9BAA-E4FBE91BA7C6}">
       <formula1>gastos_categories</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4" xr:uid="{A5EDBBFD-BDB0-459C-A05E-BA859C3354A5}">
+      <formula1>payment_methods</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1852,26 +1753,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197764B1-063C-4E4D-BF12-01F672FAF6B9}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.90625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -1894,63 +1796,70 @@
         <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>45410</v>
+        <v>45422</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>45421</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{AD92261C-1E50-49C4-97FC-87A89E387766}">
-      <formula1>creditos</formula1>
+      <formula1>payment_methods</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{48CF1E6D-1F5E-4F41-9B93-3B6C39C02A8B}">
       <formula1>issued_by</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3" xr:uid="{468FA91C-F12A-4B09-8345-47EFF0D10FF8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{468FA91C-F12A-4B09-8345-47EFF0D10FF8}">
       <formula1>plazos_recurrente_normal</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{DE86E149-6802-4D3E-B8DE-9585938348B3}">
@@ -1969,7 +1878,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2117,13 +2026,13 @@
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -2135,7 +2044,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1"/>
       <c r="I3" t="s">
@@ -2169,7 +2078,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2224,7 +2133,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -2239,7 +2148,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -2276,258 +2185,258 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2553,22 +2462,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2594,7 +2503,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -2604,32 +2513,32 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/david_finance.xlsx
+++ b/david_finance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\python_codes\finance_manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FFA578-7254-45C1-B5FD-7940E07B0904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874349C6-2C61-4733-9A67-9573CD4C11CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{345403B4-E0C2-451B-BA1E-8F2416887F82}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{345403B4-E0C2-451B-BA1E-8F2416887F82}"/>
   </bookViews>
   <sheets>
     <sheet name="deudas_a_plazos" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <definedName name="gastos_categories">gastos_categories!$A$2:$A$32</definedName>
     <definedName name="ingresos_categories">ingresos_categories!$A$2:$A$4</definedName>
     <definedName name="issued_by">issued_by!$A$2:$A$8</definedName>
-    <definedName name="payment_methods">payment_methods!$A$2:$A$11</definedName>
+    <definedName name="payment_methods">payment_methods!$A$2:$A$12</definedName>
     <definedName name="plazos_recurrente_normal">plazos_recurrente_normal!$A$2:$A$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4220" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4226" uniqueCount="147">
   <si>
     <t>fecha_de_transaccion</t>
   </si>
@@ -520,6 +520,18 @@
   <si>
     <t>Youtube Premium</t>
   </si>
+  <si>
+    <t>C&amp;A</t>
+  </si>
+  <si>
+    <t>Heb despensa</t>
+  </si>
+  <si>
+    <t>comercio</t>
+  </si>
+  <si>
+    <t>Heb</t>
+  </si>
 </sst>
 </file>
 
@@ -557,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -565,12 +577,11 @@
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="57">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -663,6 +674,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
@@ -3332,20 +3346,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F05683C-0EAF-45BA-8056-546567C31854}" name="estructura_transacciones" displayName="estructura_transacciones" ref="A1:K4" totalsRowShown="0">
-  <autoFilter ref="A1:K4" xr:uid="{6F05683C-0EAF-45BA-8056-546567C31854}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{3751A530-512A-48D0-ACA1-E2237E85BD4B}" name="fecha_de_transaccion" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{7385DBD7-EB34-433E-A7DB-728EAF33D62E}" name="frecuencia_de_pago" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{626C2B8F-5C27-4C0B-B719-5B93327D2501}" name="fecha_de_inicio" dataDxfId="53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F05683C-0EAF-45BA-8056-546567C31854}" name="estructura_transacciones" displayName="estructura_transacciones" ref="A1:L5" totalsRowShown="0">
+  <autoFilter ref="A1:L5" xr:uid="{6F05683C-0EAF-45BA-8056-546567C31854}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{3751A530-512A-48D0-ACA1-E2237E85BD4B}" name="fecha_de_transaccion" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{7385DBD7-EB34-433E-A7DB-728EAF33D62E}" name="frecuencia_de_pago" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{626C2B8F-5C27-4C0B-B719-5B93327D2501}" name="fecha_de_inicio" dataDxfId="54"/>
     <tableColumn id="4" xr3:uid="{6FA13EEF-3757-406D-AB04-AE84D502C26F}" name="numero_de_plazos"/>
     <tableColumn id="5" xr3:uid="{69EFA34A-90CC-44D8-94DA-C15E94B31796}" name="dias_de_margen"/>
-    <tableColumn id="6" xr3:uid="{6FA1131D-FE42-43C8-9D6A-591D0F28EC2F}" name="monto_total_deuda" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{FD79B06C-466E-4B3B-92B7-9CC99AB235E6}" name="forma_de_pago" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{3B2495AD-A8F6-48EB-BEEF-5C6D9FDC70A4}" name="descripcion" dataDxfId="50"/>
-    <tableColumn id="9" xr3:uid="{6A11E9C5-3541-40DF-A991-FB22ABA03550}" name="categoria" dataDxfId="49"/>
-    <tableColumn id="10" xr3:uid="{E0E77362-FF5F-42CB-91DD-D5389F8891C5}" name="realizado_por" dataDxfId="48"/>
-    <tableColumn id="11" xr3:uid="{E46B6D76-C8A7-4B91-8651-7A3D1A573011}" name="comentarios" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{6FA1131D-FE42-43C8-9D6A-591D0F28EC2F}" name="monto_total_deuda" dataDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{FD79B06C-466E-4B3B-92B7-9CC99AB235E6}" name="forma_de_pago" dataDxfId="52"/>
+    <tableColumn id="12" xr3:uid="{8FB8CD14-5ED2-4AFE-B86C-B6C2B306BE59}" name="comercio"/>
+    <tableColumn id="8" xr3:uid="{3B2495AD-A8F6-48EB-BEEF-5C6D9FDC70A4}" name="descripcion" dataDxfId="51"/>
+    <tableColumn id="9" xr3:uid="{6A11E9C5-3541-40DF-A991-FB22ABA03550}" name="categoria" dataDxfId="50"/>
+    <tableColumn id="10" xr3:uid="{E0E77362-FF5F-42CB-91DD-D5389F8891C5}" name="realizado_por" dataDxfId="49"/>
+    <tableColumn id="11" xr3:uid="{E46B6D76-C8A7-4B91-8651-7A3D1A573011}" name="comentarios" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3414,7 +3429,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FB2F1B61-6BB5-4631-AA80-6C4EAC37AA8F}" name="tbl_payment_methods" displayName="tbl_payment_methods" ref="A1:A11" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FB2F1B61-6BB5-4631-AA80-6C4EAC37AA8F}" name="tbl_payment_methods" displayName="tbl_payment_methods" ref="A1:A12" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{3259DA84-A256-4980-9405-0F87438BFD13}" name="payment_methods"/>
   </tableColumns>
@@ -3464,13 +3479,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9EE98860-EFB6-4496-9DF4-B62DF57C1B3C}" name="deudas_a_plazos_detalle" displayName="deudas_a_plazos_detalle" ref="A1:I73" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:I73" xr:uid="{9EE98860-EFB6-4496-9DF4-B62DF57C1B3C}"/>
   <tableColumns count="9">
-    <tableColumn id="2" xr3:uid="{676BB9E6-D690-4CA7-BB79-A522F271609F}" uniqueName="2" name="fecha_de_cargo" queryTableFieldId="2" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{676BB9E6-D690-4CA7-BB79-A522F271609F}" uniqueName="2" name="fecha_de_cargo" queryTableFieldId="2" dataDxfId="47"/>
     <tableColumn id="3" xr3:uid="{45E8B0BE-C03C-47E2-B133-B20E6E6FEDB9}" uniqueName="3" name="descripcion" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{81CF428F-FF73-47EC-AE77-5C8DDED45B4C}" uniqueName="4" name="categoria" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{68B3445F-73D2-4D9D-93E8-75F04C2B1AFB}" uniqueName="5" name="monto" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{FD602749-69E9-495C-AC91-E87365AE0D42}" uniqueName="6" name="forma_de_pago" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{B0F98B73-1C12-4FE9-B998-30AD246232AE}" uniqueName="7" name="realizado_por" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{429ED260-5282-4B52-A92A-A1514D46D415}" uniqueName="8" name="limite_de_pago" queryTableFieldId="8" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{429ED260-5282-4B52-A92A-A1514D46D415}" uniqueName="8" name="limite_de_pago" queryTableFieldId="8" dataDxfId="46"/>
     <tableColumn id="9" xr3:uid="{25F21882-83E1-407E-9375-E960BB44BAB9}" uniqueName="9" name="deuda_a_plazos_recurrente_o_normal" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{349FA1E1-7C3F-4E03-8FB1-09320A2ED911}" uniqueName="10" name="comentarios" queryTableFieldId="10"/>
   </tableColumns>
@@ -3479,20 +3494,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F622556F-D87B-4F08-9DB0-55027FD6196C}" name="estructura_transacciones3" displayName="estructura_transacciones3" ref="A1:K15" totalsRowShown="0">
-  <autoFilter ref="A1:K15" xr:uid="{6F05683C-0EAF-45BA-8056-546567C31854}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{596EC6A4-11EF-4DEE-B34E-9EC3BA15F511}" name="fecha_de_transaccion" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{0BAC5350-6187-4007-A1E7-9BB5CEF1C730}" name="frecuencia_de_pago" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{D476E092-13AF-42EE-AEEF-4CD702AD1094}" name="fecha_de_inicio" dataDxfId="42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F622556F-D87B-4F08-9DB0-55027FD6196C}" name="estructura_transacciones3" displayName="estructura_transacciones3" ref="A1:L16" totalsRowShown="0">
+  <autoFilter ref="A1:L16" xr:uid="{6F05683C-0EAF-45BA-8056-546567C31854}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{596EC6A4-11EF-4DEE-B34E-9EC3BA15F511}" name="fecha_de_transaccion" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{0BAC5350-6187-4007-A1E7-9BB5CEF1C730}" name="frecuencia_de_pago" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{D476E092-13AF-42EE-AEEF-4CD702AD1094}" name="fecha_de_inicio" dataDxfId="43"/>
     <tableColumn id="4" xr3:uid="{6ABE0833-0B41-40A0-BBD8-C4A709289E9F}" name="cantidad_de_frecuencias"/>
     <tableColumn id="5" xr3:uid="{6575A171-3761-4E26-A921-5D5E48E4DE51}" name="dias_de_margen"/>
-    <tableColumn id="6" xr3:uid="{F9B5451D-FA90-48DF-80E4-7A84FC8C97DC}" name="monto_por_evento" dataDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{AC6E4DF5-AB72-4C52-A496-624BC2388908}" name="forma_de_pago" dataDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{678DB44A-A74D-4876-B5D1-F88C68C3EDAF}" name="descripcion" dataDxfId="39"/>
-    <tableColumn id="9" xr3:uid="{681E92D6-501A-4714-B16D-3171F9FED5FD}" name="categoria" dataDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{E2A3ADCC-528F-4870-AC9B-81F1C834529B}" name="realizado_por" dataDxfId="37"/>
-    <tableColumn id="11" xr3:uid="{86797A6C-B13C-423C-AA63-09FCD4C63B28}" name="comentarios" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{F9B5451D-FA90-48DF-80E4-7A84FC8C97DC}" name="monto_por_evento" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{AC6E4DF5-AB72-4C52-A496-624BC2388908}" name="forma_de_pago" dataDxfId="41"/>
+    <tableColumn id="12" xr3:uid="{DA10E7CB-3C5C-42BC-8A2E-0FB436E4BD5B}" name="comercio"/>
+    <tableColumn id="8" xr3:uid="{678DB44A-A74D-4876-B5D1-F88C68C3EDAF}" name="descripcion" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{681E92D6-501A-4714-B16D-3171F9FED5FD}" name="categoria" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{E2A3ADCC-528F-4870-AC9B-81F1C834529B}" name="realizado_por" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{86797A6C-B13C-423C-AA63-09FCD4C63B28}" name="comentarios" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3502,13 +3518,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{10B198E7-78FB-40FD-9CF7-AF9A5F6109B6}" name="recurrentes_detalle" displayName="recurrentes_detalle" ref="A1:I233" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:I233" xr:uid="{10B198E7-78FB-40FD-9CF7-AF9A5F6109B6}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{29EDD6D6-9D36-44B1-B542-3AA0E4064B24}" uniqueName="1" name="fecha_de_cargo" queryTableFieldId="1" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{29EDD6D6-9D36-44B1-B542-3AA0E4064B24}" uniqueName="1" name="fecha_de_cargo" queryTableFieldId="1" dataDxfId="36"/>
     <tableColumn id="2" xr3:uid="{C0738BE7-AC7E-4237-9472-B9E065110FF4}" uniqueName="2" name="descripcion" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{317F636F-7D4F-4342-81D9-63C9077FC09E}" uniqueName="3" name="categoria" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{EEF87649-FA29-4ABB-9AE2-1937F11DCBCE}" uniqueName="4" name="monto" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{0EDAE748-EFF2-4415-B783-2B5CEF2B78A4}" uniqueName="5" name="forma_de_pago" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{726C8122-6CD0-404E-B37D-F28BC0614DFF}" uniqueName="6" name="realizado_por" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{C69E7D5D-37B1-42C9-B648-BAE387734075}" uniqueName="7" name="limite_de_pago" queryTableFieldId="7" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{C69E7D5D-37B1-42C9-B648-BAE387734075}" uniqueName="7" name="limite_de_pago" queryTableFieldId="7" dataDxfId="35"/>
     <tableColumn id="8" xr3:uid="{6E4AD1D6-8840-420F-974B-1D8FEB1AF80A}" uniqueName="8" name="deuda_a_plazos_recurrente_o_normal" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{292FBE0B-CA6A-4859-A829-19F4CFD11F78}" uniqueName="9" name="comentarios" queryTableFieldId="9"/>
   </tableColumns>
@@ -3517,10 +3533,11 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D79B7718-C5F9-44F4-99B0-95EC35A89BD8}" name="estructura_transacciones39" displayName="estructura_transacciones39" ref="A1:G3" totalsRowShown="0">
-  <autoFilter ref="A1:G3" xr:uid="{6F05683C-0EAF-45BA-8056-546567C31854}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D240ED92-CE4A-4A49-B340-81EF262976A6}" name="fecha_de_cargo" dataDxfId="33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D79B7718-C5F9-44F4-99B0-95EC35A89BD8}" name="estructura_transacciones39" displayName="estructura_transacciones39" ref="A1:H3" totalsRowShown="0">
+  <autoFilter ref="A1:H3" xr:uid="{6F05683C-0EAF-45BA-8056-546567C31854}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{D240ED92-CE4A-4A49-B340-81EF262976A6}" name="fecha_de_cargo" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{C769C1A2-DAF1-4A46-BB66-3AA9BB4093E4}" name="comercio" dataDxfId="33"/>
     <tableColumn id="8" xr3:uid="{92A8E1F3-5EAF-4920-A91A-67C16A5C9192}" name="descripcion" dataDxfId="32"/>
     <tableColumn id="9" xr3:uid="{D9377D95-3CBB-4EFF-9FC3-1AE27C942399}" name="categoria" dataDxfId="31"/>
     <tableColumn id="6" xr3:uid="{6364E12B-6F00-4608-92D1-5AC72DA21B6C}" name="monto"/>
@@ -3926,10 +3943,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3941,13 +3958,14 @@
     <col min="5" max="5" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3970,19 +3988,22 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>45383</v>
       </c>
@@ -4005,16 +4026,19 @@
         <v>63</v>
       </c>
       <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
         <v>107</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>40</v>
       </c>
-      <c r="J2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>45427</v>
       </c>
@@ -4036,17 +4060,17 @@
       <c r="G3" t="s">
         <v>94</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>113</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>37</v>
       </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>45564</v>
       </c>
@@ -4068,34 +4092,52 @@
       <c r="G4" t="s">
         <v>65</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>136</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>39</v>
       </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
       <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45570</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F8" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{7E34192A-9AB8-42FB-A10E-6192E75DBF01}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5" xr:uid="{7E34192A-9AB8-42FB-A10E-6192E75DBF01}">
       <formula1>frecuencias_de_pago</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4" xr:uid="{4192880D-0BF5-436A-8A34-203481F6B560}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H5" xr:uid="{4192880D-0BF5-436A-8A34-203481F6B560}">
       <formula1>creditos</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{07C91FC5-FDCE-4BF9-B4AE-2F3AE6AA22DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J5" xr:uid="{07C91FC5-FDCE-4BF9-B4AE-2F3AE6AA22DE}">
       <formula1>gastos_categories</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{54069142-CEB2-424C-A129-B663BF0D7FC0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K5" xr:uid="{54069142-CEB2-424C-A129-B663BF0D7FC0}">
       <formula1>issued_by</formula1>
     </dataValidation>
   </dataValidations>
@@ -5913,10 +5955,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5977,6 +6019,11 @@
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -8361,10 +8408,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8376,13 +8423,14 @@
     <col min="5" max="5" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8405,19 +8453,22 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>45425</v>
       </c>
@@ -8439,17 +8490,17 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>114</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>60</v>
       </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>45438</v>
       </c>
@@ -8471,17 +8522,17 @@
       <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>115</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>45432</v>
       </c>
@@ -8503,17 +8554,17 @@
       <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>116</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>60</v>
       </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>45429</v>
       </c>
@@ -8535,17 +8586,17 @@
       <c r="G5" t="s">
         <v>66</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>117</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>32</v>
       </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>45383</v>
       </c>
@@ -8567,17 +8618,17 @@
       <c r="G6" t="s">
         <v>63</v>
       </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
       <c r="I6" t="s">
         <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>45383</v>
       </c>
@@ -8599,17 +8650,17 @@
       <c r="G7" t="s">
         <v>63</v>
       </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
       <c r="I7" t="s">
         <v>42</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="K7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>45412</v>
       </c>
@@ -8631,17 +8682,17 @@
       <c r="G8" t="s">
         <v>66</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>135</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>30</v>
       </c>
-      <c r="J8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>45412</v>
       </c>
@@ -8663,17 +8714,17 @@
       <c r="G9" t="s">
         <v>66</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>135</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>30</v>
       </c>
-      <c r="J9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>45473</v>
       </c>
@@ -8695,21 +8746,21 @@
       <c r="G10" t="s">
         <v>66</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>138</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>54</v>
       </c>
-      <c r="J10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>45417</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="6">
@@ -8724,25 +8775,24 @@
       <c r="F11" s="2">
         <v>129</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" t="s">
         <v>139</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>45406</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="6">
@@ -8757,25 +8807,24 @@
       <c r="F12" s="2">
         <v>150</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="I12" t="s">
         <v>140</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="J12" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>45406</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="6">
@@ -8790,25 +8839,24 @@
       <c r="F13" s="2">
         <v>169</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="I13" t="s">
         <v>141</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="J13" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>45426</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="6">
@@ -8823,43 +8871,40 @@
       <c r="F14" s="2">
         <v>139</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="I14" t="s">
         <v>142</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
       <c r="C15" s="6"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C16" s="6"/>
+      <c r="F16" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B15" xr:uid="{E1A01DDE-ADE5-4AB2-A00A-E9B34637D814}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B16" xr:uid="{E1A01DDE-ADE5-4AB2-A00A-E9B34637D814}">
       <formula1>frecuencias_de_pago</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J15" xr:uid="{35840D09-514F-4340-87A4-EE6B2ECF3A24}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K16" xr:uid="{35840D09-514F-4340-87A4-EE6B2ECF3A24}">
       <formula1>issued_by</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I15" xr:uid="{262668A4-F67E-4A82-9BAA-E4FBE91BA7C6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J16" xr:uid="{262668A4-F67E-4A82-9BAA-E4FBE91BA7C6}">
       <formula1>gastos_categories</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G15" xr:uid="{A5EDBBFD-BDB0-459C-A05E-BA859C3354A5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H16" xr:uid="{A5EDBBFD-BDB0-459C-A05E-BA859C3354A5}">
       <formula1>payment_methods</formula1>
     </dataValidation>
   </dataValidations>
@@ -8877,7 +8922,9 @@
   </sheetPr>
   <dimension ref="A1:I233"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -15662,101 +15709,107 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>28</v>
       </c>
       <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>45422</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2">
-        <v>200</v>
-      </c>
-      <c r="E2" t="s">
+        <v>45565</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2">
+        <v>2585.35</v>
+      </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>45421</v>
+        <v>45565</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3">
-        <v>200</v>
-      </c>
-      <c r="E3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>604.39</v>
+      </c>
+      <c r="F3" t="s">
         <v>64</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{AD92261C-1E50-49C4-97FC-87A89E387766}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{AD92261C-1E50-49C4-97FC-87A89E387766}">
       <formula1>payment_methods</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{48CF1E6D-1F5E-4F41-9B93-3B6C39C02A8B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{48CF1E6D-1F5E-4F41-9B93-3B6C39C02A8B}">
       <formula1>issued_by</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{DE86E149-6802-4D3E-B8DE-9585938348B3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{DE86E149-6802-4D3E-B8DE-9585938348B3}">
       <formula1>gastos_categories</formula1>
     </dataValidation>
   </dataValidations>
@@ -15774,8 +15827,8 @@
   </sheetPr>
   <dimension ref="A1:I307"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24712,7 +24765,7 @@
   <dimension ref="A2:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/david_finance.xlsx
+++ b/david_finance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\python_codes\finance_manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874349C6-2C61-4733-9A67-9573CD4C11CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB87741-5948-4176-A162-590737E4FABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{345403B4-E0C2-451B-BA1E-8F2416887F82}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{345403B4-E0C2-451B-BA1E-8F2416887F82}"/>
   </bookViews>
   <sheets>
     <sheet name="deudas_a_plazos" sheetId="2" r:id="rId1"/>
@@ -35,15 +35,15 @@
     <sheet name="plazos_recurrente_normal" sheetId="16" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="credit_cards">tarjetas_de_credito!$A$2:$A$6</definedName>
-    <definedName name="creditos">creditos!$A$2:$A$7</definedName>
+    <definedName name="credit_cards">tarjetas_de_credito!$A$2:$A$8</definedName>
+    <definedName name="creditos">creditos!$A$2:$A$9</definedName>
     <definedName name="debito_y_cuentas">debito_y_cuentas!$A$2:$A$6</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">deudas_a_plazos_detalle!$A$1:$I$73</definedName>
     <definedName name="ExternalData_1" localSheetId="5" hidden="1">historial_cargos!$A$1:$I$307</definedName>
     <definedName name="ExternalData_1" localSheetId="9" hidden="1">ingresos_recurrentes_detalle!$A$1:$J$37</definedName>
     <definedName name="ExternalData_2" localSheetId="3" hidden="1">cargos_recurrentes_detalle!$A$1:$I$233</definedName>
     <definedName name="frecuencias_de_pago">frecuencias_de_pago!$A$2:$A$10</definedName>
-    <definedName name="gastos_categories">gastos_categories!$A$2:$A$32</definedName>
+    <definedName name="gastos_categories">gastos_categories!$A$2:$A$33</definedName>
     <definedName name="ingresos_categories">ingresos_categories!$A$2:$A$4</definedName>
     <definedName name="issued_by">issued_by!$A$2:$A$8</definedName>
     <definedName name="payment_methods">payment_methods!$A$2:$A$12</definedName>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4226" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4253" uniqueCount="155">
   <si>
     <t>fecha_de_transaccion</t>
   </si>
@@ -532,15 +532,47 @@
   <si>
     <t>Heb</t>
   </si>
+  <si>
+    <t>Heb Afirme</t>
+  </si>
+  <si>
+    <t>Bebe</t>
+  </si>
+  <si>
+    <t>Banregio Platinum</t>
+  </si>
+  <si>
+    <t>Cama individual</t>
+  </si>
+  <si>
+    <t>Carriola</t>
+  </si>
+  <si>
+    <t>Corral Colecho</t>
+  </si>
+  <si>
+    <t>Cesia</t>
+  </si>
+  <si>
+    <t>Almoahada para lactancia</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,10 +598,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -577,8 +610,11 @@
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="57">
@@ -1159,6 +1195,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1166,7 +1203,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3346,8 +3382,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F05683C-0EAF-45BA-8056-546567C31854}" name="estructura_transacciones" displayName="estructura_transacciones" ref="A1:L5" totalsRowShown="0">
-  <autoFilter ref="A1:L5" xr:uid="{6F05683C-0EAF-45BA-8056-546567C31854}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F05683C-0EAF-45BA-8056-546567C31854}" name="estructura_transacciones" displayName="estructura_transacciones" ref="A1:L7" totalsRowShown="0">
+  <autoFilter ref="A1:L7" xr:uid="{6F05683C-0EAF-45BA-8056-546567C31854}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{3751A530-512A-48D0-ACA1-E2237E85BD4B}" name="fecha_de_transaccion" dataDxfId="56"/>
     <tableColumn id="2" xr3:uid="{7385DBD7-EB34-433E-A7DB-728EAF33D62E}" name="frecuencia_de_pago" dataDxfId="55"/>
@@ -3384,8 +3420,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BD9F39C0-D6F9-4027-AD2C-5D5F8AC2454B}" name="tbl_categories" displayName="tbl_categories" ref="A1:B32" totalsRowShown="0">
-  <autoFilter ref="A1:B32" xr:uid="{14A61C42-EA3E-4643-94C9-58DF2CE98E75}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BD9F39C0-D6F9-4027-AD2C-5D5F8AC2454B}" name="tbl_categories" displayName="tbl_categories" ref="A1:B33" totalsRowShown="0">
+  <autoFilter ref="A1:B33" xr:uid="{14A61C42-EA3E-4643-94C9-58DF2CE98E75}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
     <sortCondition ref="A1:A32"/>
   </sortState>
@@ -3418,7 +3454,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{9CFA1823-AEE8-4F63-833F-B72781BDAA8D}" name="tbl_credit_cards" displayName="tbl_credit_cards" ref="A1:C6" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{9CFA1823-AEE8-4F63-833F-B72781BDAA8D}" name="tbl_credit_cards" displayName="tbl_credit_cards" ref="A1:C8" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{61208F26-2C92-45CC-B249-AC17EA349613}" name="credit_cards"/>
     <tableColumn id="2" xr3:uid="{6C7D9BEB-9819-4AF2-9F21-D2E6EC717C7C}" name="dia_de_corte"/>
@@ -3438,7 +3474,7 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{504B537A-CF9A-4C93-901E-81100B737829}" name="tbl_creditos" displayName="tbl_creditos" ref="A1:A7" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{504B537A-CF9A-4C93-901E-81100B737829}" name="tbl_creditos" displayName="tbl_creditos" ref="A1:A9" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{85F827C8-280F-40ED-8DE7-C1BB7D914AEC}" name="creditos"/>
   </tableColumns>
@@ -3533,8 +3569,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D79B7718-C5F9-44F4-99B0-95EC35A89BD8}" name="estructura_transacciones39" displayName="estructura_transacciones39" ref="A1:H3" totalsRowShown="0">
-  <autoFilter ref="A1:H3" xr:uid="{6F05683C-0EAF-45BA-8056-546567C31854}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D79B7718-C5F9-44F4-99B0-95EC35A89BD8}" name="estructura_transacciones39" displayName="estructura_transacciones39" ref="A1:H4" totalsRowShown="0">
+  <autoFilter ref="A1:H4" xr:uid="{6F05683C-0EAF-45BA-8056-546567C31854}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{D240ED92-CE4A-4A49-B340-81EF262976A6}" name="fecha_de_cargo" dataDxfId="34"/>
     <tableColumn id="2" xr3:uid="{C769C1A2-DAF1-4A46-BB66-3AA9BB4093E4}" name="comercio" dataDxfId="33"/>
@@ -3945,27 +3981,27 @@
   </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4003,7 +4039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>45383</v>
       </c>
@@ -4038,7 +4074,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>45427</v>
       </c>
@@ -4070,7 +4106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>45564</v>
       </c>
@@ -4105,39 +4141,125 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>45900</v>
+      </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="6">
-        <v>45570</v>
+        <v>45900</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>8865.5300000000007</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>45842</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6">
+        <v>45842</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>12600</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>45900</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6">
+        <v>45900</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>405</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F8" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5" xr:uid="{7E34192A-9AB8-42FB-A10E-6192E75DBF01}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B7" xr:uid="{7E34192A-9AB8-42FB-A10E-6192E75DBF01}">
       <formula1>frecuencias_de_pago</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H5" xr:uid="{4192880D-0BF5-436A-8A34-203481F6B560}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H7" xr:uid="{4192880D-0BF5-436A-8A34-203481F6B560}">
       <formula1>creditos</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J5" xr:uid="{07C91FC5-FDCE-4BF9-B4AE-2F3AE6AA22DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J7" xr:uid="{07C91FC5-FDCE-4BF9-B4AE-2F3AE6AA22DE}">
       <formula1>gastos_categories</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K5" xr:uid="{54069142-CEB2-424C-A129-B663BF0D7FC0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K7" xr:uid="{54069142-CEB2-424C-A129-B663BF0D7FC0}">
       <formula1>issued_by</formula1>
     </dataValidation>
   </dataValidations>
@@ -4159,23 +4281,23 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" customWidth="1"/>
-    <col min="11" max="12" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1"/>
+    <col min="11" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>132</v>
       </c>
@@ -4207,7 +4329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4239,7 +4361,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4271,7 +4393,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4303,7 +4425,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4335,7 +4457,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4367,7 +4489,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4399,7 +4521,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4431,7 +4553,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4463,7 +4585,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4495,7 +4617,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4527,7 +4649,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4559,7 +4681,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4591,7 +4713,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4623,7 +4745,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4655,7 +4777,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4687,7 +4809,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4719,7 +4841,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4751,7 +4873,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4783,7 +4905,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4815,7 +4937,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4847,7 +4969,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4879,7 +5001,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4911,7 +5033,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4943,7 +5065,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4975,7 +5097,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5007,7 +5129,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -5039,7 +5161,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5071,7 +5193,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5103,7 +5225,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -5135,7 +5257,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5167,7 +5289,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -5199,7 +5321,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -5231,7 +5353,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5263,7 +5385,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -5295,7 +5417,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5327,7 +5449,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5378,19 +5500,19 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -5416,7 +5538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45410</v>
       </c>
@@ -5442,7 +5564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45414</v>
       </c>
@@ -5477,18 +5599,18 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>95</v>
       </c>
@@ -5496,7 +5618,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -5504,7 +5626,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -5512,7 +5634,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -5520,7 +5642,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -5528,7 +5650,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -5536,7 +5658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -5544,7 +5666,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -5552,7 +5674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -5560,7 +5682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -5568,7 +5690,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -5576,7 +5698,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -5584,7 +5706,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -5592,7 +5714,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -5600,7 +5722,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -5608,7 +5730,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -5616,7 +5738,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -5624,7 +5746,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -5632,7 +5754,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -5640,7 +5762,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -5648,7 +5770,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -5656,7 +5778,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -5664,7 +5786,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -5672,7 +5794,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -5680,7 +5802,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -5688,7 +5810,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -5696,7 +5818,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -5704,7 +5826,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -5712,7 +5834,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -5720,7 +5842,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -5728,7 +5850,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -5736,12 +5858,20 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>62</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -5763,27 +5893,27 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -5807,47 +5937,47 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -5865,18 +5995,18 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>103</v>
       </c>
@@ -5887,7 +6017,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -5898,7 +6028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5909,7 +6039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -5920,7 +6050,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -5931,7 +6061,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -5939,6 +6069,28 @@
         <v>6</v>
       </c>
       <c r="C6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
         <v>19</v>
       </c>
     </row>
@@ -5961,67 +6113,67 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>143</v>
       </c>
@@ -6039,45 +6191,57 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -6097,37 +6261,37 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -6149,57 +6313,57 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -6219,24 +6383,24 @@
   </sheetPr>
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -6265,7 +6429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45228</v>
       </c>
@@ -6294,7 +6458,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45235</v>
       </c>
@@ -6323,7 +6487,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45242</v>
       </c>
@@ -6352,7 +6516,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45249</v>
       </c>
@@ -6381,7 +6545,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45256</v>
       </c>
@@ -6410,7 +6574,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45263</v>
       </c>
@@ -6439,7 +6603,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45270</v>
       </c>
@@ -6468,7 +6632,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45277</v>
       </c>
@@ -6497,7 +6661,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45284</v>
       </c>
@@ -6526,7 +6690,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45291</v>
       </c>
@@ -6555,7 +6719,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45298</v>
       </c>
@@ -6584,7 +6748,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45305</v>
       </c>
@@ -6613,7 +6777,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45312</v>
       </c>
@@ -6642,7 +6806,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45319</v>
       </c>
@@ -6671,7 +6835,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45326</v>
       </c>
@@ -6700,7 +6864,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45333</v>
       </c>
@@ -6729,7 +6893,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45340</v>
       </c>
@@ -6758,7 +6922,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45347</v>
       </c>
@@ -6787,7 +6951,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45354</v>
       </c>
@@ -6816,7 +6980,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45361</v>
       </c>
@@ -6845,7 +7009,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45368</v>
       </c>
@@ -6874,7 +7038,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45375</v>
       </c>
@@ -6903,7 +7067,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45382</v>
       </c>
@@ -6932,7 +7096,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45389</v>
       </c>
@@ -6961,7 +7125,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45396</v>
       </c>
@@ -6990,7 +7154,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45403</v>
       </c>
@@ -7019,7 +7183,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45410</v>
       </c>
@@ -7048,7 +7212,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45417</v>
       </c>
@@ -7077,7 +7241,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45424</v>
       </c>
@@ -7106,7 +7270,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45431</v>
       </c>
@@ -7135,7 +7299,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45438</v>
       </c>
@@ -7164,7 +7328,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45445</v>
       </c>
@@ -7193,7 +7357,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45452</v>
       </c>
@@ -7222,7 +7386,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45459</v>
       </c>
@@ -7251,7 +7415,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45466</v>
       </c>
@@ -7280,7 +7444,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45473</v>
       </c>
@@ -7309,7 +7473,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45480</v>
       </c>
@@ -7338,7 +7502,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>45487</v>
       </c>
@@ -7367,7 +7531,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45494</v>
       </c>
@@ -7396,7 +7560,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45501</v>
       </c>
@@ -7425,7 +7589,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45508</v>
       </c>
@@ -7454,7 +7618,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45515</v>
       </c>
@@ -7483,7 +7647,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45522</v>
       </c>
@@ -7512,7 +7676,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45529</v>
       </c>
@@ -7541,7 +7705,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45536</v>
       </c>
@@ -7570,7 +7734,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45543</v>
       </c>
@@ -7599,7 +7763,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45550</v>
       </c>
@@ -7628,7 +7792,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45557</v>
       </c>
@@ -7657,7 +7821,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>45564</v>
       </c>
@@ -7686,7 +7850,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>45571</v>
       </c>
@@ -7715,7 +7879,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>45578</v>
       </c>
@@ -7744,7 +7908,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>45585</v>
       </c>
@@ -7773,7 +7937,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45592</v>
       </c>
@@ -7802,7 +7966,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>45599</v>
       </c>
@@ -7831,7 +7995,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>45429</v>
       </c>
@@ -7860,7 +8024,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>45445</v>
       </c>
@@ -7889,7 +8053,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>45460</v>
       </c>
@@ -7918,7 +8082,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>45475</v>
       </c>
@@ -7947,7 +8111,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>45490</v>
       </c>
@@ -7976,7 +8140,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>45506</v>
       </c>
@@ -8005,7 +8169,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>45521</v>
       </c>
@@ -8034,7 +8198,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>45537</v>
       </c>
@@ -8063,7 +8227,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>45552</v>
       </c>
@@ -8092,7 +8256,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>45564</v>
       </c>
@@ -8121,7 +8285,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>45594</v>
       </c>
@@ -8150,7 +8314,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>45625</v>
       </c>
@@ -8179,7 +8343,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>45655</v>
       </c>
@@ -8208,7 +8372,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>45686</v>
       </c>
@@ -8237,7 +8401,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>45717</v>
       </c>
@@ -8266,7 +8430,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>45745</v>
       </c>
@@ -8295,7 +8459,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>45776</v>
       </c>
@@ -8324,7 +8488,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>45806</v>
       </c>
@@ -8370,27 +8534,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -8411,26 +8575,26 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8468,7 +8632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>45425</v>
       </c>
@@ -8500,7 +8664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>45438</v>
       </c>
@@ -8532,7 +8696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>45432</v>
       </c>
@@ -8564,7 +8728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>45429</v>
       </c>
@@ -8596,7 +8760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>45383</v>
       </c>
@@ -8628,7 +8792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>45383</v>
       </c>
@@ -8660,7 +8824,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>45412</v>
       </c>
@@ -8692,7 +8856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>45412</v>
       </c>
@@ -8724,7 +8888,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>45473</v>
       </c>
@@ -8756,7 +8920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>45417</v>
       </c>
@@ -8788,7 +8952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>45406</v>
       </c>
@@ -8820,7 +8984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>45406</v>
       </c>
@@ -8852,7 +9016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>45426</v>
       </c>
@@ -8884,12 +9048,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="C15" s="6"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="6"/>
       <c r="F16" s="2"/>
     </row>
@@ -8926,20 +9090,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -8968,7 +9132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45383</v>
       </c>
@@ -8997,7 +9161,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45390</v>
       </c>
@@ -9026,7 +9190,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45397</v>
       </c>
@@ -9055,7 +9219,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45404</v>
       </c>
@@ -9084,7 +9248,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45411</v>
       </c>
@@ -9113,7 +9277,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45418</v>
       </c>
@@ -9142,7 +9306,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45425</v>
       </c>
@@ -9171,7 +9335,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45432</v>
       </c>
@@ -9200,7 +9364,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45439</v>
       </c>
@@ -9229,7 +9393,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45446</v>
       </c>
@@ -9258,7 +9422,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45453</v>
       </c>
@@ -9287,7 +9451,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45460</v>
       </c>
@@ -9316,7 +9480,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45467</v>
       </c>
@@ -9345,7 +9509,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45474</v>
       </c>
@@ -9374,7 +9538,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45481</v>
       </c>
@@ -9403,7 +9567,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45488</v>
       </c>
@@ -9432,7 +9596,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45495</v>
       </c>
@@ -9461,7 +9625,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45502</v>
       </c>
@@ -9490,7 +9654,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45509</v>
       </c>
@@ -9519,7 +9683,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45516</v>
       </c>
@@ -9548,7 +9712,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45523</v>
       </c>
@@ -9577,7 +9741,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45530</v>
       </c>
@@ -9606,7 +9770,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45537</v>
       </c>
@@ -9635,7 +9799,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45544</v>
       </c>
@@ -9664,7 +9828,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45551</v>
       </c>
@@ -9693,7 +9857,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45558</v>
       </c>
@@ -9722,7 +9886,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45565</v>
       </c>
@@ -9751,7 +9915,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45572</v>
       </c>
@@ -9780,7 +9944,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45579</v>
       </c>
@@ -9809,7 +9973,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45586</v>
       </c>
@@ -9838,7 +10002,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45593</v>
       </c>
@@ -9867,7 +10031,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45600</v>
       </c>
@@ -9896,7 +10060,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45607</v>
       </c>
@@ -9925,7 +10089,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45614</v>
       </c>
@@ -9954,7 +10118,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45621</v>
       </c>
@@ -9983,7 +10147,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45628</v>
       </c>
@@ -10012,7 +10176,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45635</v>
       </c>
@@ -10041,7 +10205,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>45642</v>
       </c>
@@ -10070,7 +10234,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45649</v>
       </c>
@@ -10099,7 +10263,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45656</v>
       </c>
@@ -10128,7 +10292,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45663</v>
       </c>
@@ -10157,7 +10321,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45670</v>
       </c>
@@ -10186,7 +10350,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45677</v>
       </c>
@@ -10215,7 +10379,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45684</v>
       </c>
@@ -10244,7 +10408,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45691</v>
       </c>
@@ -10273,7 +10437,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45698</v>
       </c>
@@ -10302,7 +10466,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45705</v>
       </c>
@@ -10331,7 +10495,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45712</v>
       </c>
@@ -10360,7 +10524,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>45719</v>
       </c>
@@ -10389,7 +10553,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>45726</v>
       </c>
@@ -10418,7 +10582,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>45733</v>
       </c>
@@ -10447,7 +10611,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>45740</v>
       </c>
@@ -10476,7 +10640,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45747</v>
       </c>
@@ -10505,7 +10669,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>45754</v>
       </c>
@@ -10534,7 +10698,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>45383</v>
       </c>
@@ -10563,7 +10727,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>45390</v>
       </c>
@@ -10592,7 +10756,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>45397</v>
       </c>
@@ -10621,7 +10785,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>45404</v>
       </c>
@@ -10650,7 +10814,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>45411</v>
       </c>
@@ -10679,7 +10843,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>45418</v>
       </c>
@@ -10708,7 +10872,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>45425</v>
       </c>
@@ -10737,7 +10901,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>45432</v>
       </c>
@@ -10766,7 +10930,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>45439</v>
       </c>
@@ -10795,7 +10959,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>45446</v>
       </c>
@@ -10824,7 +10988,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>45453</v>
       </c>
@@ -10853,7 +11017,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>45460</v>
       </c>
@@ -10882,7 +11046,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>45467</v>
       </c>
@@ -10911,7 +11075,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>45474</v>
       </c>
@@ -10940,7 +11104,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>45481</v>
       </c>
@@ -10969,7 +11133,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>45488</v>
       </c>
@@ -10998,7 +11162,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>45495</v>
       </c>
@@ -11027,7 +11191,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>45502</v>
       </c>
@@ -11056,7 +11220,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>45509</v>
       </c>
@@ -11085,7 +11249,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>45516</v>
       </c>
@@ -11114,7 +11278,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>45523</v>
       </c>
@@ -11143,7 +11307,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>45530</v>
       </c>
@@ -11172,7 +11336,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>45537</v>
       </c>
@@ -11201,7 +11365,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>45544</v>
       </c>
@@ -11230,7 +11394,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>45551</v>
       </c>
@@ -11259,7 +11423,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>45558</v>
       </c>
@@ -11288,7 +11452,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>45565</v>
       </c>
@@ -11317,7 +11481,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>45572</v>
       </c>
@@ -11346,7 +11510,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>45579</v>
       </c>
@@ -11375,7 +11539,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>45586</v>
       </c>
@@ -11404,7 +11568,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>45593</v>
       </c>
@@ -11433,7 +11597,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>45600</v>
       </c>
@@ -11462,7 +11626,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>45607</v>
       </c>
@@ -11491,7 +11655,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>45614</v>
       </c>
@@ -11520,7 +11684,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>45621</v>
       </c>
@@ -11549,7 +11713,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>45628</v>
       </c>
@@ -11578,7 +11742,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>45635</v>
       </c>
@@ -11607,7 +11771,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>45642</v>
       </c>
@@ -11636,7 +11800,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>45649</v>
       </c>
@@ -11665,7 +11829,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>45656</v>
       </c>
@@ -11694,7 +11858,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>45663</v>
       </c>
@@ -11723,7 +11887,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>45670</v>
       </c>
@@ -11752,7 +11916,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>45677</v>
       </c>
@@ -11781,7 +11945,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>45684</v>
       </c>
@@ -11810,7 +11974,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>45691</v>
       </c>
@@ -11839,7 +12003,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>45698</v>
       </c>
@@ -11868,7 +12032,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>45705</v>
       </c>
@@ -11897,7 +12061,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>45712</v>
       </c>
@@ -11926,7 +12090,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>45719</v>
       </c>
@@ -11955,7 +12119,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>45726</v>
       </c>
@@ -11984,7 +12148,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>45733</v>
       </c>
@@ -12013,7 +12177,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>45740</v>
       </c>
@@ -12042,7 +12206,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>45747</v>
       </c>
@@ -12071,7 +12235,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>45754</v>
       </c>
@@ -12100,7 +12264,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>45429</v>
       </c>
@@ -12129,7 +12293,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>45443</v>
       </c>
@@ -12158,7 +12322,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>45457</v>
       </c>
@@ -12187,7 +12351,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>45471</v>
       </c>
@@ -12216,7 +12380,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>45485</v>
       </c>
@@ -12245,7 +12409,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>45499</v>
       </c>
@@ -12274,7 +12438,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>45513</v>
       </c>
@@ -12303,7 +12467,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>45527</v>
       </c>
@@ -12332,7 +12496,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>45541</v>
       </c>
@@ -12361,7 +12525,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>45555</v>
       </c>
@@ -12390,7 +12554,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>45432</v>
       </c>
@@ -12419,7 +12583,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>45463</v>
       </c>
@@ -12448,7 +12612,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>45493</v>
       </c>
@@ -12477,7 +12641,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>45524</v>
       </c>
@@ -12506,7 +12670,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>45555</v>
       </c>
@@ -12535,7 +12699,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>45585</v>
       </c>
@@ -12564,7 +12728,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>45616</v>
       </c>
@@ -12593,7 +12757,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>45646</v>
       </c>
@@ -12622,7 +12786,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>45677</v>
       </c>
@@ -12651,7 +12815,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>45708</v>
       </c>
@@ -12680,7 +12844,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>45736</v>
       </c>
@@ -12709,7 +12873,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>45767</v>
       </c>
@@ -12738,7 +12902,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>45412</v>
       </c>
@@ -12767,7 +12931,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>45442</v>
       </c>
@@ -12796,7 +12960,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>45473</v>
       </c>
@@ -12825,7 +12989,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>45503</v>
       </c>
@@ -12854,7 +13018,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>45534</v>
       </c>
@@ -12883,7 +13047,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>45565</v>
       </c>
@@ -12912,7 +13076,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>45595</v>
       </c>
@@ -12941,7 +13105,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>45626</v>
       </c>
@@ -12970,7 +13134,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>45656</v>
       </c>
@@ -12999,7 +13163,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>45687</v>
       </c>
@@ -13028,7 +13192,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>45718</v>
       </c>
@@ -13057,7 +13221,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>45746</v>
       </c>
@@ -13086,7 +13250,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>45777</v>
       </c>
@@ -13115,7 +13279,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>45807</v>
       </c>
@@ -13144,7 +13308,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>45838</v>
       </c>
@@ -13173,7 +13337,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>45868</v>
       </c>
@@ -13202,7 +13366,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>45899</v>
       </c>
@@ -13231,7 +13395,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>45930</v>
       </c>
@@ -13260,7 +13424,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>45960</v>
       </c>
@@ -13289,7 +13453,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>45991</v>
       </c>
@@ -13318,7 +13482,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>46021</v>
       </c>
@@ -13347,7 +13511,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>46052</v>
       </c>
@@ -13376,7 +13540,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>46083</v>
       </c>
@@ -13405,7 +13569,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>46111</v>
       </c>
@@ -13434,7 +13598,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>46142</v>
       </c>
@@ -13463,7 +13627,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>46172</v>
       </c>
@@ -13492,7 +13656,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>46203</v>
       </c>
@@ -13521,7 +13685,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>46233</v>
       </c>
@@ -13550,7 +13714,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>46264</v>
       </c>
@@ -13579,7 +13743,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>46295</v>
       </c>
@@ -13608,7 +13772,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>46325</v>
       </c>
@@ -13637,7 +13801,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>46356</v>
       </c>
@@ -13666,7 +13830,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>46386</v>
       </c>
@@ -13695,7 +13859,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>46417</v>
       </c>
@@ -13724,7 +13888,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>46448</v>
       </c>
@@ -13753,7 +13917,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>46476</v>
       </c>
@@ -13782,7 +13946,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>45412</v>
       </c>
@@ -13811,7 +13975,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>45442</v>
       </c>
@@ -13840,7 +14004,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>45473</v>
       </c>
@@ -13869,7 +14033,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>45503</v>
       </c>
@@ -13898,7 +14062,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>45534</v>
       </c>
@@ -13927,7 +14091,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>45565</v>
       </c>
@@ -13956,7 +14120,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>45595</v>
       </c>
@@ -13985,7 +14149,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>45626</v>
       </c>
@@ -14014,7 +14178,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>45656</v>
       </c>
@@ -14043,7 +14207,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>45687</v>
       </c>
@@ -14072,7 +14236,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>45718</v>
       </c>
@@ -14101,7 +14265,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>45746</v>
       </c>
@@ -14130,7 +14294,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>45777</v>
       </c>
@@ -14159,7 +14323,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>45807</v>
       </c>
@@ -14188,7 +14352,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>45838</v>
       </c>
@@ -14217,7 +14381,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>45868</v>
       </c>
@@ -14246,7 +14410,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>45899</v>
       </c>
@@ -14275,7 +14439,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>45930</v>
       </c>
@@ -14304,7 +14468,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>45960</v>
       </c>
@@ -14333,7 +14497,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>45991</v>
       </c>
@@ -14362,7 +14526,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>46021</v>
       </c>
@@ -14391,7 +14555,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>46052</v>
       </c>
@@ -14420,7 +14584,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>46083</v>
       </c>
@@ -14449,7 +14613,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>46111</v>
       </c>
@@ -14478,7 +14642,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>46142</v>
       </c>
@@ -14507,7 +14671,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>46172</v>
       </c>
@@ -14536,7 +14700,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>46203</v>
       </c>
@@ -14565,7 +14729,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>46233</v>
       </c>
@@ -14594,7 +14758,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>46264</v>
       </c>
@@ -14623,7 +14787,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>46295</v>
       </c>
@@ -14652,7 +14816,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>46325</v>
       </c>
@@ -14681,7 +14845,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>46356</v>
       </c>
@@ -14710,7 +14874,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>46386</v>
       </c>
@@ -14739,7 +14903,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>46417</v>
       </c>
@@ -14768,7 +14932,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>46448</v>
       </c>
@@ -14797,7 +14961,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>46476</v>
       </c>
@@ -14826,7 +14990,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>45425</v>
       </c>
@@ -14855,7 +15019,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>45486</v>
       </c>
@@ -14884,7 +15048,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>45548</v>
       </c>
@@ -14913,7 +15077,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>45609</v>
       </c>
@@ -14942,7 +15106,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>45670</v>
       </c>
@@ -14971,7 +15135,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>45729</v>
       </c>
@@ -15000,7 +15164,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>45790</v>
       </c>
@@ -15029,7 +15193,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>45851</v>
       </c>
@@ -15058,7 +15222,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>45913</v>
       </c>
@@ -15087,7 +15251,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>45974</v>
       </c>
@@ -15116,7 +15280,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>46035</v>
       </c>
@@ -15145,7 +15309,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>46094</v>
       </c>
@@ -15174,7 +15338,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>45425</v>
       </c>
@@ -15203,7 +15367,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>45486</v>
       </c>
@@ -15232,7 +15396,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>45548</v>
       </c>
@@ -15261,7 +15425,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>45609</v>
       </c>
@@ -15290,7 +15454,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>45670</v>
       </c>
@@ -15319,7 +15483,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>45729</v>
       </c>
@@ -15348,7 +15512,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>45790</v>
       </c>
@@ -15377,7 +15541,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>45851</v>
       </c>
@@ -15406,7 +15570,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>45913</v>
       </c>
@@ -15435,7 +15599,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>45974</v>
       </c>
@@ -15464,7 +15628,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>46035</v>
       </c>
@@ -15493,7 +15657,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>46094</v>
       </c>
@@ -15522,7 +15686,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>45473</v>
       </c>
@@ -15551,7 +15715,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>45656</v>
       </c>
@@ -15580,7 +15744,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>45838</v>
       </c>
@@ -15609,7 +15773,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>46021</v>
       </c>
@@ -15638,7 +15802,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>46203</v>
       </c>
@@ -15667,7 +15831,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>46386</v>
       </c>
@@ -15709,27 +15873,27 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6328125" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -15755,7 +15919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45565</v>
       </c>
@@ -15781,7 +15945,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45565</v>
       </c>
@@ -15801,15 +15965,39 @@
         <v>64</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{AD92261C-1E50-49C4-97FC-87A89E387766}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{AD92261C-1E50-49C4-97FC-87A89E387766}">
       <formula1>payment_methods</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{48CF1E6D-1F5E-4F41-9B93-3B6C39C02A8B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4" xr:uid="{48CF1E6D-1F5E-4F41-9B93-3B6C39C02A8B}">
       <formula1>issued_by</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{DE86E149-6802-4D3E-B8DE-9585938348B3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{DE86E149-6802-4D3E-B8DE-9585938348B3}">
       <formula1>gastos_categories</formula1>
     </dataValidation>
   </dataValidations>
@@ -15831,22 +16019,22 @@
       <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -15875,7 +16063,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45228</v>
       </c>
@@ -15904,7 +16092,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45235</v>
       </c>
@@ -15933,7 +16121,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45242</v>
       </c>
@@ -15962,7 +16150,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45249</v>
       </c>
@@ -15991,7 +16179,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45256</v>
       </c>
@@ -16020,7 +16208,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45263</v>
       </c>
@@ -16049,7 +16237,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45270</v>
       </c>
@@ -16078,7 +16266,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45277</v>
       </c>
@@ -16107,7 +16295,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45284</v>
       </c>
@@ -16136,7 +16324,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45291</v>
       </c>
@@ -16165,7 +16353,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45298</v>
       </c>
@@ -16194,7 +16382,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45305</v>
       </c>
@@ -16223,7 +16411,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45312</v>
       </c>
@@ -16252,7 +16440,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45319</v>
       </c>
@@ -16281,7 +16469,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45326</v>
       </c>
@@ -16310,7 +16498,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45333</v>
       </c>
@@ -16339,7 +16527,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45340</v>
       </c>
@@ -16368,7 +16556,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45347</v>
       </c>
@@ -16397,7 +16585,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45354</v>
       </c>
@@ -16426,7 +16614,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45361</v>
       </c>
@@ -16455,7 +16643,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45368</v>
       </c>
@@ -16484,7 +16672,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45375</v>
       </c>
@@ -16513,7 +16701,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45382</v>
       </c>
@@ -16542,7 +16730,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45383</v>
       </c>
@@ -16571,7 +16759,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45383</v>
       </c>
@@ -16600,7 +16788,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45389</v>
       </c>
@@ -16629,7 +16817,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45390</v>
       </c>
@@ -16658,7 +16846,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45390</v>
       </c>
@@ -16687,7 +16875,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45396</v>
       </c>
@@ -16716,7 +16904,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45397</v>
       </c>
@@ -16745,7 +16933,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45397</v>
       </c>
@@ -16774,7 +16962,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45403</v>
       </c>
@@ -16803,7 +16991,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45404</v>
       </c>
@@ -16832,7 +17020,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45404</v>
       </c>
@@ -16861,7 +17049,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45410</v>
       </c>
@@ -16890,7 +17078,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45411</v>
       </c>
@@ -16919,7 +17107,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45411</v>
       </c>
@@ -16948,7 +17136,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>45412</v>
       </c>
@@ -16977,7 +17165,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45412</v>
       </c>
@@ -17006,7 +17194,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45417</v>
       </c>
@@ -17035,7 +17223,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45418</v>
       </c>
@@ -17064,7 +17252,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45418</v>
       </c>
@@ -17093,7 +17281,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45421</v>
       </c>
@@ -17122,7 +17310,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45422</v>
       </c>
@@ -17151,7 +17339,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45424</v>
       </c>
@@ -17180,7 +17368,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45425</v>
       </c>
@@ -17209,7 +17397,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45425</v>
       </c>
@@ -17238,7 +17426,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45425</v>
       </c>
@@ -17267,7 +17455,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>45425</v>
       </c>
@@ -17296,7 +17484,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>45429</v>
       </c>
@@ -17325,7 +17513,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>45429</v>
       </c>
@@ -17354,7 +17542,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>45431</v>
       </c>
@@ -17383,7 +17571,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45432</v>
       </c>
@@ -17412,7 +17600,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>45432</v>
       </c>
@@ -17441,7 +17629,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>45432</v>
       </c>
@@ -17470,7 +17658,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>45438</v>
       </c>
@@ -17499,7 +17687,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>45439</v>
       </c>
@@ -17528,7 +17716,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>45439</v>
       </c>
@@ -17557,7 +17745,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>45442</v>
       </c>
@@ -17586,7 +17774,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>45442</v>
       </c>
@@ -17615,7 +17803,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>45443</v>
       </c>
@@ -17644,7 +17832,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>45445</v>
       </c>
@@ -17673,7 +17861,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>45445</v>
       </c>
@@ -17702,7 +17890,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>45446</v>
       </c>
@@ -17731,7 +17919,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>45446</v>
       </c>
@@ -17760,7 +17948,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>45452</v>
       </c>
@@ -17789,7 +17977,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>45453</v>
       </c>
@@ -17818,7 +18006,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>45453</v>
       </c>
@@ -17847,7 +18035,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>45457</v>
       </c>
@@ -17876,7 +18064,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>45459</v>
       </c>
@@ -17905,7 +18093,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>45460</v>
       </c>
@@ -17934,7 +18122,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>45460</v>
       </c>
@@ -17963,7 +18151,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>45460</v>
       </c>
@@ -17992,7 +18180,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>45463</v>
       </c>
@@ -18021,7 +18209,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>45466</v>
       </c>
@@ -18050,7 +18238,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>45467</v>
       </c>
@@ -18079,7 +18267,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>45467</v>
       </c>
@@ -18108,7 +18296,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>45471</v>
       </c>
@@ -18137,7 +18325,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>45473</v>
       </c>
@@ -18166,7 +18354,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>45473</v>
       </c>
@@ -18195,7 +18383,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>45473</v>
       </c>
@@ -18224,7 +18412,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>45473</v>
       </c>
@@ -18253,7 +18441,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>45474</v>
       </c>
@@ -18282,7 +18470,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>45474</v>
       </c>
@@ -18311,7 +18499,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>45475</v>
       </c>
@@ -18340,7 +18528,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>45480</v>
       </c>
@@ -18369,7 +18557,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>45481</v>
       </c>
@@ -18398,7 +18586,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>45481</v>
       </c>
@@ -18427,7 +18615,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>45485</v>
       </c>
@@ -18456,7 +18644,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>45486</v>
       </c>
@@ -18485,7 +18673,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>45486</v>
       </c>
@@ -18514,7 +18702,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>45487</v>
       </c>
@@ -18543,7 +18731,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>45488</v>
       </c>
@@ -18572,7 +18760,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>45488</v>
       </c>
@@ -18601,7 +18789,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>45490</v>
       </c>
@@ -18630,7 +18818,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>45493</v>
       </c>
@@ -18659,7 +18847,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>45494</v>
       </c>
@@ -18688,7 +18876,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>45495</v>
       </c>
@@ -18717,7 +18905,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>45495</v>
       </c>
@@ -18746,7 +18934,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>45499</v>
       </c>
@@ -18775,7 +18963,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>45501</v>
       </c>
@@ -18804,7 +18992,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>45502</v>
       </c>
@@ -18833,7 +19021,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>45502</v>
       </c>
@@ -18862,7 +19050,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>45503</v>
       </c>
@@ -18891,7 +19079,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>45503</v>
       </c>
@@ -18920,7 +19108,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>45506</v>
       </c>
@@ -18949,7 +19137,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>45508</v>
       </c>
@@ -18978,7 +19166,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>45509</v>
       </c>
@@ -19007,7 +19195,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>45509</v>
       </c>
@@ -19036,7 +19224,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>45513</v>
       </c>
@@ -19065,7 +19253,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>45515</v>
       </c>
@@ -19094,7 +19282,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>45516</v>
       </c>
@@ -19123,7 +19311,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>45516</v>
       </c>
@@ -19152,7 +19340,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>45521</v>
       </c>
@@ -19181,7 +19369,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>45522</v>
       </c>
@@ -19210,7 +19398,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>45523</v>
       </c>
@@ -19239,7 +19427,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>45523</v>
       </c>
@@ -19268,7 +19456,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>45524</v>
       </c>
@@ -19297,7 +19485,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>45527</v>
       </c>
@@ -19326,7 +19514,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>45529</v>
       </c>
@@ -19355,7 +19543,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>45530</v>
       </c>
@@ -19384,7 +19572,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>45530</v>
       </c>
@@ -19413,7 +19601,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>45534</v>
       </c>
@@ -19442,7 +19630,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>45534</v>
       </c>
@@ -19471,7 +19659,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>45536</v>
       </c>
@@ -19500,7 +19688,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>45537</v>
       </c>
@@ -19529,7 +19717,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>45537</v>
       </c>
@@ -19558,7 +19746,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>45537</v>
       </c>
@@ -19587,7 +19775,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>45541</v>
       </c>
@@ -19616,7 +19804,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>45543</v>
       </c>
@@ -19645,7 +19833,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>45544</v>
       </c>
@@ -19674,7 +19862,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>45544</v>
       </c>
@@ -19703,7 +19891,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>45548</v>
       </c>
@@ -19732,7 +19920,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>45548</v>
       </c>
@@ -19761,7 +19949,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>45550</v>
       </c>
@@ -19790,7 +19978,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>45551</v>
       </c>
@@ -19819,7 +20007,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>45551</v>
       </c>
@@ -19848,7 +20036,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>45552</v>
       </c>
@@ -19877,7 +20065,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>45555</v>
       </c>
@@ -19906,7 +20094,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>45555</v>
       </c>
@@ -19935,7 +20123,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>45557</v>
       </c>
@@ -19964,7 +20152,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>45558</v>
       </c>
@@ -19993,7 +20181,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>45558</v>
       </c>
@@ -20022,7 +20210,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>45564</v>
       </c>
@@ -20051,7 +20239,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>45564</v>
       </c>
@@ -20080,7 +20268,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>45565</v>
       </c>
@@ -20109,7 +20297,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>45565</v>
       </c>
@@ -20138,7 +20326,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>45565</v>
       </c>
@@ -20167,7 +20355,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>45565</v>
       </c>
@@ -20196,7 +20384,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>45571</v>
       </c>
@@ -20225,7 +20413,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>45572</v>
       </c>
@@ -20254,7 +20442,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>45572</v>
       </c>
@@ -20283,7 +20471,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>45578</v>
       </c>
@@ -20312,7 +20500,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>45579</v>
       </c>
@@ -20341,7 +20529,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>45579</v>
       </c>
@@ -20370,7 +20558,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>45585</v>
       </c>
@@ -20399,7 +20587,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>45585</v>
       </c>
@@ -20428,7 +20616,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>45586</v>
       </c>
@@ -20457,7 +20645,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>45586</v>
       </c>
@@ -20486,7 +20674,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>45592</v>
       </c>
@@ -20515,7 +20703,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>45593</v>
       </c>
@@ -20544,7 +20732,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>45593</v>
       </c>
@@ -20573,7 +20761,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>45594</v>
       </c>
@@ -20602,7 +20790,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>45595</v>
       </c>
@@ -20631,7 +20819,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>45595</v>
       </c>
@@ -20660,7 +20848,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>45599</v>
       </c>
@@ -20689,7 +20877,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>45600</v>
       </c>
@@ -20718,7 +20906,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>45600</v>
       </c>
@@ -20747,7 +20935,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>45607</v>
       </c>
@@ -20776,7 +20964,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>45607</v>
       </c>
@@ -20805,7 +20993,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>45609</v>
       </c>
@@ -20834,7 +21022,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>45609</v>
       </c>
@@ -20863,7 +21051,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>45614</v>
       </c>
@@ -20892,7 +21080,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>45614</v>
       </c>
@@ -20921,7 +21109,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>45616</v>
       </c>
@@ -20950,7 +21138,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>45621</v>
       </c>
@@ -20979,7 +21167,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>45621</v>
       </c>
@@ -21008,7 +21196,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>45625</v>
       </c>
@@ -21037,7 +21225,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>45626</v>
       </c>
@@ -21066,7 +21254,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>45626</v>
       </c>
@@ -21095,7 +21283,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>45628</v>
       </c>
@@ -21124,7 +21312,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>45628</v>
       </c>
@@ -21153,7 +21341,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>45635</v>
       </c>
@@ -21182,7 +21370,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>45635</v>
       </c>
@@ -21211,7 +21399,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>45642</v>
       </c>
@@ -21240,7 +21428,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>45642</v>
       </c>
@@ -21269,7 +21457,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>45646</v>
       </c>
@@ -21298,7 +21486,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>45649</v>
       </c>
@@ -21327,7 +21515,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>45649</v>
       </c>
@@ -21356,7 +21544,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>45655</v>
       </c>
@@ -21385,7 +21573,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>45656</v>
       </c>
@@ -21414,7 +21602,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>45656</v>
       </c>
@@ -21443,7 +21631,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>45656</v>
       </c>
@@ -21472,7 +21660,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>45656</v>
       </c>
@@ -21501,7 +21689,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>45656</v>
       </c>
@@ -21530,7 +21718,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>45663</v>
       </c>
@@ -21559,7 +21747,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>45663</v>
       </c>
@@ -21588,7 +21776,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>45670</v>
       </c>
@@ -21617,7 +21805,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>45670</v>
       </c>
@@ -21646,7 +21834,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>45670</v>
       </c>
@@ -21675,7 +21863,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>45670</v>
       </c>
@@ -21704,7 +21892,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>45677</v>
       </c>
@@ -21733,7 +21921,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>45677</v>
       </c>
@@ -21762,7 +21950,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>45677</v>
       </c>
@@ -21791,7 +21979,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>45684</v>
       </c>
@@ -21820,7 +22008,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>45684</v>
       </c>
@@ -21849,7 +22037,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>45686</v>
       </c>
@@ -21878,7 +22066,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>45687</v>
       </c>
@@ -21907,7 +22095,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>45687</v>
       </c>
@@ -21936,7 +22124,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>45691</v>
       </c>
@@ -21965,7 +22153,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>45691</v>
       </c>
@@ -21994,7 +22182,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>45698</v>
       </c>
@@ -22023,7 +22211,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>45698</v>
       </c>
@@ -22052,7 +22240,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>45705</v>
       </c>
@@ -22081,7 +22269,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>45705</v>
       </c>
@@ -22110,7 +22298,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>45708</v>
       </c>
@@ -22139,7 +22327,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>45712</v>
       </c>
@@ -22168,7 +22356,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>45712</v>
       </c>
@@ -22197,7 +22385,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>45717</v>
       </c>
@@ -22226,7 +22414,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>45718</v>
       </c>
@@ -22255,7 +22443,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>45718</v>
       </c>
@@ -22284,7 +22472,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>45719</v>
       </c>
@@ -22313,7 +22501,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>45719</v>
       </c>
@@ -22342,7 +22530,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>45726</v>
       </c>
@@ -22371,7 +22559,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>45726</v>
       </c>
@@ -22400,7 +22588,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>45729</v>
       </c>
@@ -22429,7 +22617,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>45729</v>
       </c>
@@ -22458,7 +22646,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>45733</v>
       </c>
@@ -22487,7 +22675,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>45733</v>
       </c>
@@ -22516,7 +22704,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>45736</v>
       </c>
@@ -22545,7 +22733,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>45740</v>
       </c>
@@ -22574,7 +22762,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>45740</v>
       </c>
@@ -22603,7 +22791,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>45745</v>
       </c>
@@ -22632,7 +22820,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>45746</v>
       </c>
@@ -22661,7 +22849,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>45746</v>
       </c>
@@ -22690,7 +22878,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>45747</v>
       </c>
@@ -22719,7 +22907,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>45747</v>
       </c>
@@ -22748,7 +22936,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>45754</v>
       </c>
@@ -22777,7 +22965,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>45754</v>
       </c>
@@ -22806,7 +22994,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>45767</v>
       </c>
@@ -22835,7 +23023,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>45776</v>
       </c>
@@ -22864,7 +23052,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>45777</v>
       </c>
@@ -22893,7 +23081,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>45777</v>
       </c>
@@ -22922,7 +23110,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>45790</v>
       </c>
@@ -22951,7 +23139,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>45790</v>
       </c>
@@ -22980,7 +23168,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>45806</v>
       </c>
@@ -23009,7 +23197,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>45807</v>
       </c>
@@ -23038,7 +23226,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>45807</v>
       </c>
@@ -23067,7 +23255,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>45838</v>
       </c>
@@ -23096,7 +23284,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>45838</v>
       </c>
@@ -23125,7 +23313,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>45838</v>
       </c>
@@ -23154,7 +23342,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>45851</v>
       </c>
@@ -23183,7 +23371,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>45851</v>
       </c>
@@ -23212,7 +23400,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>45868</v>
       </c>
@@ -23241,7 +23429,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>45868</v>
       </c>
@@ -23270,7 +23458,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>45899</v>
       </c>
@@ -23299,7 +23487,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>45899</v>
       </c>
@@ -23328,7 +23516,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>45913</v>
       </c>
@@ -23357,7 +23545,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>45913</v>
       </c>
@@ -23386,7 +23574,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>45930</v>
       </c>
@@ -23415,7 +23603,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>45930</v>
       </c>
@@ -23444,7 +23632,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>45960</v>
       </c>
@@ -23473,7 +23661,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>45960</v>
       </c>
@@ -23502,7 +23690,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>45974</v>
       </c>
@@ -23531,7 +23719,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>45974</v>
       </c>
@@ -23560,7 +23748,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>45991</v>
       </c>
@@ -23589,7 +23777,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>45991</v>
       </c>
@@ -23618,7 +23806,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>46021</v>
       </c>
@@ -23647,7 +23835,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>46021</v>
       </c>
@@ -23676,7 +23864,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>46021</v>
       </c>
@@ -23705,7 +23893,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>46035</v>
       </c>
@@ -23734,7 +23922,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>46035</v>
       </c>
@@ -23763,7 +23951,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>46052</v>
       </c>
@@ -23792,7 +23980,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>46052</v>
       </c>
@@ -23821,7 +24009,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>46083</v>
       </c>
@@ -23850,7 +24038,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>46083</v>
       </c>
@@ -23879,7 +24067,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>46094</v>
       </c>
@@ -23908,7 +24096,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>46094</v>
       </c>
@@ -23937,7 +24125,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>46111</v>
       </c>
@@ -23966,7 +24154,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>46111</v>
       </c>
@@ -23995,7 +24183,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>46142</v>
       </c>
@@ -24024,7 +24212,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>46142</v>
       </c>
@@ -24053,7 +24241,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>46172</v>
       </c>
@@ -24082,7 +24270,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>46172</v>
       </c>
@@ -24111,7 +24299,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>46203</v>
       </c>
@@ -24140,7 +24328,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>46203</v>
       </c>
@@ -24169,7 +24357,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>46203</v>
       </c>
@@ -24198,7 +24386,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>46233</v>
       </c>
@@ -24227,7 +24415,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>46233</v>
       </c>
@@ -24256,7 +24444,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>46264</v>
       </c>
@@ -24285,7 +24473,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>46264</v>
       </c>
@@ -24314,7 +24502,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>46295</v>
       </c>
@@ -24343,7 +24531,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>46295</v>
       </c>
@@ -24372,7 +24560,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>46325</v>
       </c>
@@ -24401,7 +24589,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>46325</v>
       </c>
@@ -24430,7 +24618,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>46356</v>
       </c>
@@ -24459,7 +24647,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>46356</v>
       </c>
@@ -24488,7 +24676,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>46386</v>
       </c>
@@ -24517,7 +24705,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>46386</v>
       </c>
@@ -24546,7 +24734,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>46386</v>
       </c>
@@ -24575,7 +24763,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>46417</v>
       </c>
@@ -24604,7 +24792,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>46417</v>
       </c>
@@ -24633,7 +24821,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>46448</v>
       </c>
@@ -24662,7 +24850,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>46448</v>
       </c>
@@ -24691,7 +24879,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>46476</v>
       </c>
@@ -24720,7 +24908,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>46476</v>
       </c>
@@ -24768,14 +24956,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>130</v>
       </c>
@@ -24783,7 +24971,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -24791,7 +24979,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>131</v>
       </c>
@@ -24802,7 +24990,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -24810,7 +24998,7 @@
         <v>555.55555555555554</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>128</v>
       </c>
@@ -24818,7 +25006,7 @@
         <v>1111.1111111111111</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -24829,7 +25017,7 @@
         <v>555.55555555555554</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>45429</v>
       </c>
@@ -24837,7 +25025,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>45443</v>
       </c>
@@ -24845,7 +25033,7 @@
         <v>675.55555555555554</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -24853,7 +25041,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -24861,7 +25049,7 @@
         <v>4371.1111111111113</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -24869,7 +25057,7 @@
         <v>3305.5555555555557</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>134</v>
       </c>
@@ -24877,7 +25065,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -24885,7 +25073,7 @@
         <v>3131.1111111111113</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -24893,7 +25081,7 @@
         <v>3131.1111111111113</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>119</v>
       </c>
@@ -24918,18 +25106,18 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -24949,7 +25137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45410</v>
       </c>
@@ -24994,21 +25182,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -25040,7 +25228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45379</v>
       </c>
@@ -25072,7 +25260,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45365</v>
       </c>
